--- a/Code/Results/Cases/Case_1_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3004202040378203</v>
+        <v>0.1032961280896671</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2096843396561638</v>
+        <v>0.1973786334130665</v>
       </c>
       <c r="E2">
-        <v>0.1734173417678306</v>
+        <v>0.1686580250957377</v>
       </c>
       <c r="F2">
-        <v>0.7706493742967453</v>
+        <v>1.38539536047562</v>
       </c>
       <c r="G2">
-        <v>0.0008018071191366514</v>
+        <v>0.002456613967747282</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2242944207213666</v>
+        <v>0.4947891773267941</v>
       </c>
       <c r="J2">
-        <v>0.1875742276991019</v>
+        <v>0.186744779948846</v>
       </c>
       <c r="K2">
-        <v>2.660588235704637</v>
+        <v>0.9426148357079001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.649816244121155</v>
+        <v>3.30716897825846</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.261816948320643</v>
+        <v>0.09077806294087054</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1854625864134647</v>
+        <v>0.1913542004115669</v>
       </c>
       <c r="E3">
-        <v>0.1542585454253569</v>
+        <v>0.1644126951552778</v>
       </c>
       <c r="F3">
-        <v>0.7327165572634016</v>
+        <v>1.388371444129064</v>
       </c>
       <c r="G3">
-        <v>0.0008061969482119296</v>
+        <v>0.002459499932330808</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2413160271533652</v>
+        <v>0.5033369029767574</v>
       </c>
       <c r="J3">
-        <v>0.1675969381562865</v>
+        <v>0.1827546154448214</v>
       </c>
       <c r="K3">
-        <v>2.316472248337533</v>
+        <v>0.8361995459853517</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.603337919409825</v>
+        <v>3.328628647878759</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2381052283746072</v>
+        <v>0.08307687039801692</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1707123370573953</v>
+        <v>0.1877237933466631</v>
       </c>
       <c r="E4">
-        <v>0.1426643838488069</v>
+        <v>0.1618874637718051</v>
       </c>
       <c r="F4">
-        <v>0.7111730453189509</v>
+        <v>1.391069844476128</v>
       </c>
       <c r="G4">
-        <v>0.0008089787967999634</v>
+        <v>0.002461366423824715</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2523990620677052</v>
+        <v>0.5088964811680303</v>
       </c>
       <c r="J4">
-        <v>0.1555819054805454</v>
+        <v>0.1804138514620774</v>
       </c>
       <c r="K4">
-        <v>2.105393969081291</v>
+        <v>0.7707506856914961</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.579364069511115</v>
+        <v>3.344019255003417</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2284378304241557</v>
+        <v>0.07993502248385198</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1647291237016901</v>
+        <v>0.1862617322926781</v>
       </c>
       <c r="E5">
-        <v>0.1379786076268346</v>
+        <v>0.1608789242480633</v>
       </c>
       <c r="F5">
-        <v>0.7028086182575279</v>
+        <v>1.392388369240187</v>
       </c>
       <c r="G5">
-        <v>0.0008101346164962214</v>
+        <v>0.002462150868321077</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2570699116347388</v>
+        <v>0.5112403007616479</v>
       </c>
       <c r="J5">
-        <v>0.1507436494300123</v>
+        <v>0.1794874291619308</v>
       </c>
       <c r="K5">
-        <v>2.019400374725848</v>
+        <v>0.744053757952031</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.570680551623212</v>
+        <v>3.350847233796259</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2268322174256525</v>
+        <v>0.07941311360033865</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1637371989146743</v>
+        <v>0.1860200097129194</v>
       </c>
       <c r="E6">
-        <v>0.1372027866276255</v>
+        <v>0.1607126971189921</v>
       </c>
       <c r="F6">
-        <v>0.7014440635938186</v>
+        <v>1.392620526686933</v>
       </c>
       <c r="G6">
-        <v>0.0008103278926454998</v>
+        <v>0.002462282566307344</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2578547038188264</v>
+        <v>0.5116342156060005</v>
       </c>
       <c r="J6">
-        <v>0.1499436158962055</v>
+        <v>0.1793352557213339</v>
       </c>
       <c r="K6">
-        <v>2.005121715058863</v>
+        <v>0.7396192293490174</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.569302512368807</v>
+        <v>3.352014588387888</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2379748724346058</v>
+        <v>0.08303451239703463</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1706315373644287</v>
+        <v>0.1877040050533338</v>
       </c>
       <c r="E7">
-        <v>0.1426010368640931</v>
+        <v>0.1618737791467275</v>
       </c>
       <c r="F7">
-        <v>0.7110585921576345</v>
+        <v>1.391086740405214</v>
       </c>
       <c r="G7">
-        <v>0.0008089942941107431</v>
+        <v>0.002461376906675278</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2524614352238199</v>
+        <v>0.5089277739450209</v>
       </c>
       <c r="J7">
-        <v>0.1555164269920724</v>
+        <v>0.18040124623586</v>
       </c>
       <c r="K7">
-        <v>2.104234176890458</v>
+        <v>0.7703907447619542</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.579242642384287</v>
+        <v>3.344109088383902</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2871102126753016</v>
+        <v>0.09898315953327597</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2013054619617805</v>
+        <v>0.1952872273609074</v>
       </c>
       <c r="E8">
-        <v>0.1667739528591952</v>
+        <v>0.1671773588787815</v>
       </c>
       <c r="F8">
-        <v>0.7571921989662158</v>
+        <v>1.386240639117979</v>
       </c>
       <c r="G8">
-        <v>0.0008033030616026168</v>
+        <v>0.002457589478532831</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2300296405092048</v>
+        <v>0.4976718254593342</v>
       </c>
       <c r="J8">
-        <v>0.180630731629293</v>
+        <v>0.1853462995587023</v>
       </c>
       <c r="K8">
-        <v>2.541874373577571</v>
+        <v>0.9059464436386975</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.632805109562128</v>
+        <v>3.314108322015414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3835116592798471</v>
+        <v>0.1301302143922101</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2625742663705495</v>
+        <v>0.2106986858254345</v>
       </c>
       <c r="E9">
-        <v>0.2156991717255394</v>
+        <v>0.1782226722325291</v>
       </c>
       <c r="F9">
-        <v>0.8627103297003771</v>
+        <v>1.383656723864902</v>
       </c>
       <c r="G9">
-        <v>0.0007928071595897072</v>
+        <v>0.002450908866523327</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1912613460634214</v>
+        <v>0.4780690141069659</v>
       </c>
       <c r="J9">
-        <v>0.2321228030728975</v>
+        <v>0.1959110609754191</v>
       </c>
       <c r="K9">
-        <v>3.403270535693309</v>
+        <v>1.170848122081964</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.777011707499582</v>
+        <v>3.272876426614346</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4545523955348898</v>
+        <v>0.1529262789605923</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3084956174598403</v>
+        <v>0.2223475566284208</v>
       </c>
       <c r="E10">
-        <v>0.2528400776152253</v>
+        <v>0.1867305963239119</v>
       </c>
       <c r="F10">
-        <v>0.9511751061963167</v>
+        <v>1.385989575911665</v>
       </c>
       <c r="G10">
-        <v>0.0007854689385753463</v>
+        <v>0.00244645112793237</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1662639105591497</v>
+        <v>0.4651729792018022</v>
       </c>
       <c r="J10">
-        <v>0.2716972587438278</v>
+        <v>0.2042043063437404</v>
       </c>
       <c r="K10">
-        <v>4.040414906496324</v>
+        <v>1.364855375813136</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.911237558401325</v>
+        <v>3.253357573427166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4869623577558428</v>
+        <v>0.1632759009097953</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3296379396437885</v>
+        <v>0.2277170569792872</v>
       </c>
       <c r="E11">
-        <v>0.2700605557586826</v>
+        <v>0.1906864024394537</v>
       </c>
       <c r="F11">
-        <v>0.9942204249073967</v>
+        <v>1.387972608482031</v>
       </c>
       <c r="G11">
-        <v>0.0007822039991021712</v>
+        <v>0.002444520032711406</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1557204349058514</v>
+        <v>0.4596333582241741</v>
       </c>
       <c r="J11">
-        <v>0.2901699416620858</v>
+        <v>0.2080930827519722</v>
       </c>
       <c r="K11">
-        <v>4.331767990026776</v>
+        <v>1.452970513048911</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.979498904408814</v>
+        <v>3.246827415689864</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4992524866657106</v>
+        <v>0.1671918931639027</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3376851333175921</v>
+        <v>0.2297603805913866</v>
       </c>
       <c r="E12">
-        <v>0.276633999422657</v>
+        <v>0.1921966365587053</v>
       </c>
       <c r="F12">
-        <v>1.01096192041301</v>
+        <v>1.38885628577151</v>
       </c>
       <c r="G12">
-        <v>0.000780977512805729</v>
+        <v>0.002443802616344461</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1518534256691524</v>
+        <v>0.4575826713856017</v>
       </c>
       <c r="J12">
-        <v>0.2972408285677517</v>
+        <v>0.2095823861085364</v>
       </c>
       <c r="K12">
-        <v>4.44236420727691</v>
+        <v>1.486316069248517</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.006479183408203</v>
+        <v>3.244693171502888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4966047600583465</v>
+        <v>0.1663486597531119</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3359501205389819</v>
+        <v>0.229319870808169</v>
       </c>
       <c r="E13">
-        <v>0.2752158634842843</v>
+        <v>0.1918708361562551</v>
       </c>
       <c r="F13">
-        <v>1.007336077616245</v>
+        <v>1.388660063104339</v>
       </c>
       <c r="G13">
-        <v>0.0007812412303566993</v>
+        <v>0.002443956509798312</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1526805618519873</v>
+        <v>0.4580222302896679</v>
       </c>
       <c r="J13">
-        <v>0.2957144846684514</v>
+        <v>0.2092608947634602</v>
       </c>
       <c r="K13">
-        <v>4.41853261668615</v>
+        <v>1.47913549971031</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.000616582217447</v>
+        <v>3.245137747917454</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4879731070401334</v>
+        <v>0.1635981371963027</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.330299135746202</v>
+        <v>0.2278849624426016</v>
       </c>
       <c r="E14">
-        <v>0.2706002720014666</v>
+        <v>0.1908104049050721</v>
       </c>
       <c r="F14">
-        <v>0.9955886864294285</v>
+        <v>1.388042647624857</v>
       </c>
       <c r="G14">
-        <v>0.0007821029013537744</v>
+        <v>0.002444460733346012</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1553997381247845</v>
+        <v>0.4594637038132907</v>
       </c>
       <c r="J14">
-        <v>0.2907501023048127</v>
+        <v>0.2082152737358882</v>
       </c>
       <c r="K14">
-        <v>4.340861154363949</v>
+        <v>1.455714316961576</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.981695342248059</v>
+        <v>3.246645039858038</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4826883248838527</v>
+        <v>0.1619129405952151</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.326843238400528</v>
+        <v>0.227007340057142</v>
       </c>
       <c r="E15">
-        <v>0.2677800929426937</v>
+        <v>0.1901624550805749</v>
       </c>
       <c r="F15">
-        <v>0.9884517090727485</v>
+        <v>1.387681755920212</v>
       </c>
       <c r="G15">
-        <v>0.0007826319654253289</v>
+        <v>0.002444771386225601</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1570818666039395</v>
+        <v>0.4603527763292528</v>
       </c>
       <c r="J15">
-        <v>0.2877193821761637</v>
+        <v>0.2075769767837272</v>
       </c>
       <c r="K15">
-        <v>4.293321473794947</v>
+        <v>1.441365287369933</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.97025582000262</v>
+        <v>3.247612416926302</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4524365197668203</v>
+        <v>0.152249474617534</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3071193949056266</v>
+        <v>0.2219980538773001</v>
       </c>
       <c r="E16">
-        <v>0.2517216938027786</v>
+        <v>0.1864737923376012</v>
       </c>
       <c r="F16">
-        <v>0.9484215796100841</v>
+        <v>1.385878545527433</v>
       </c>
       <c r="G16">
-        <v>0.0007856837288627758</v>
+        <v>0.002446579270944786</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1669701595706652</v>
+        <v>0.4655415874991347</v>
       </c>
       <c r="J16">
-        <v>0.2705001609915456</v>
+        <v>0.2039525033025456</v>
       </c>
       <c r="K16">
-        <v>4.021408881586694</v>
+        <v>1.359093892072792</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.90692943242891</v>
+        <v>3.253831671523415</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4339044803365368</v>
+        <v>0.1463158434384155</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2950873829318255</v>
+        <v>0.2189429650980657</v>
       </c>
       <c r="E17">
-        <v>0.2419575162348053</v>
+        <v>0.1842327896908529</v>
       </c>
       <c r="F17">
-        <v>0.9246083651658523</v>
+        <v>1.385008567286448</v>
       </c>
       <c r="G17">
-        <v>0.0007875741954154599</v>
+        <v>0.002447713083485722</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1732528729131646</v>
+        <v>0.4688085022507522</v>
       </c>
       <c r="J17">
-        <v>0.2600626738052796</v>
+        <v>0.2017587573167248</v>
       </c>
       <c r="K17">
-        <v>3.855020748766719</v>
+        <v>1.308586095676617</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.869990880304812</v>
+        <v>3.25824919871016</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4232538679720932</v>
+        <v>0.1429010682242478</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2881903456258641</v>
+        <v>0.2171923889371214</v>
       </c>
       <c r="E18">
-        <v>0.2363716327657457</v>
+        <v>0.182951875113325</v>
       </c>
       <c r="F18">
-        <v>0.9111729358458547</v>
+        <v>1.384594932178473</v>
       </c>
       <c r="G18">
-        <v>0.0007886684789029789</v>
+        <v>0.002448374333138651</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1769440424283255</v>
+        <v>0.4707183070325334</v>
       </c>
       <c r="J18">
-        <v>0.2541030305310272</v>
+        <v>0.2005079036056543</v>
       </c>
       <c r="K18">
-        <v>3.759457884231779</v>
+        <v>1.279522291826368</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.849416467912846</v>
+        <v>3.261011101425169</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.419649107604684</v>
+        <v>0.1417445639894765</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2858590174751612</v>
+        <v>0.2166008159754824</v>
       </c>
       <c r="E19">
-        <v>0.2344853712766195</v>
+        <v>0.1825195634064372</v>
       </c>
       <c r="F19">
-        <v>0.906667693474688</v>
+        <v>1.384469776584695</v>
       </c>
       <c r="G19">
-        <v>0.0007890401952393572</v>
+        <v>0.002448599787606254</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1782069314861996</v>
+        <v>0.471370216077232</v>
       </c>
       <c r="J19">
-        <v>0.2520924712872556</v>
+        <v>0.2000862631977611</v>
       </c>
       <c r="K19">
-        <v>3.727124404569736</v>
+        <v>1.269679595135528</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.842562892333262</v>
+        <v>3.261984177014028</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4358763386436522</v>
+        <v>0.1469476878291402</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.296365750133873</v>
+        <v>0.2192674991135988</v>
       </c>
       <c r="E20">
-        <v>0.2429937627775161</v>
+        <v>0.1844705153026922</v>
       </c>
       <c r="F20">
-        <v>0.9271160115369383</v>
+        <v>1.38509219791834</v>
       </c>
       <c r="G20">
-        <v>0.0007873722386242178</v>
+        <v>0.00244759144459892</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1725759986283686</v>
+        <v>0.4684575495283729</v>
       </c>
       <c r="J20">
-        <v>0.2611691804176246</v>
+        <v>0.2019911539535286</v>
       </c>
       <c r="K20">
-        <v>3.87271829851727</v>
+        <v>1.313964099912027</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.873852868577586</v>
+        <v>3.257756060987447</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4905079349109798</v>
+        <v>0.1644061207548759</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3319578129985103</v>
+        <v>0.2283061589992457</v>
       </c>
       <c r="E21">
-        <v>0.2719545126452303</v>
+        <v>0.1911215469565875</v>
       </c>
       <c r="F21">
-        <v>0.9990268871465418</v>
+        <v>1.388220393309354</v>
       </c>
       <c r="G21">
-        <v>0.0007818495451566229</v>
+        <v>0.002444312255229928</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1545975879517973</v>
+        <v>0.459039030868249</v>
       </c>
       <c r="J21">
-        <v>0.2922061399920324</v>
+        <v>0.2085219444631008</v>
       </c>
       <c r="K21">
-        <v>4.363667479267519</v>
+        <v>1.462594288940579</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.987221468494738</v>
+        <v>3.246193116273531</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5263149476506612</v>
+        <v>0.175797537487739</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.355461066837421</v>
+        <v>0.2342717435303285</v>
       </c>
       <c r="E22">
-        <v>0.2911905787819791</v>
+        <v>0.1955398006483691</v>
       </c>
       <c r="F22">
-        <v>1.048616245510658</v>
+        <v>1.391038683034935</v>
       </c>
       <c r="G22">
-        <v>0.0007782973658756107</v>
+        <v>0.002442249798705157</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1435829559612216</v>
+        <v>0.4531577349354485</v>
       </c>
       <c r="J22">
-        <v>0.3129359648404204</v>
+        <v>0.2128875848769241</v>
       </c>
       <c r="K22">
-        <v>4.686114361732564</v>
+        <v>1.559605274294199</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.067957889697453</v>
+        <v>3.240609962136062</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5071934008850292</v>
+        <v>0.1697195146651325</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3428931448236625</v>
+        <v>0.2310825004140469</v>
       </c>
       <c r="E23">
-        <v>0.2808936904786563</v>
+        <v>0.1931751737218121</v>
       </c>
       <c r="F23">
-        <v>1.021898918803743</v>
+        <v>1.389463639868069</v>
       </c>
       <c r="G23">
-        <v>0.000780188225572441</v>
+        <v>0.002443343209789006</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1493921241973624</v>
+        <v>0.4562715836798175</v>
       </c>
       <c r="J23">
-        <v>0.3018284672155858</v>
+        <v>0.210548646590027</v>
       </c>
       <c r="K23">
-        <v>4.5138560005729</v>
+        <v>1.507840885025644</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.024225817906625</v>
+        <v>3.243408923190657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4349848502482843</v>
+        <v>0.1466620417126876</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2957877373634688</v>
+        <v>0.2191207591027933</v>
       </c>
       <c r="E24">
-        <v>0.2425251899481964</v>
+        <v>0.1843630162906109</v>
       </c>
       <c r="F24">
-        <v>0.9259815128701376</v>
+        <v>1.38505411899466</v>
       </c>
       <c r="G24">
-        <v>0.0007874635200937531</v>
+        <v>0.002447646408243709</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1728817674331893</v>
+        <v>0.4686161167884908</v>
       </c>
       <c r="J24">
-        <v>0.2606688016536935</v>
+        <v>0.2018860551655166</v>
       </c>
       <c r="K24">
-        <v>3.864716941295569</v>
+        <v>1.311532785681777</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.872104808671253</v>
+        <v>3.257978316436407</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3574091030989734</v>
+        <v>0.1217188263515112</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2458574492212477</v>
+        <v>0.2064719574093061</v>
       </c>
       <c r="E25">
-        <v>0.2022741681008284</v>
+        <v>0.1751655991268208</v>
       </c>
       <c r="F25">
-        <v>0.8323789139691513</v>
+        <v>1.383613633125336</v>
       </c>
       <c r="G25">
-        <v>0.0007955786178922914</v>
+        <v>0.00245263670537474</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.201160142696148</v>
+        <v>0.4831076251381168</v>
       </c>
       <c r="J25">
-        <v>0.2179155430805935</v>
+        <v>0.1929598852404979</v>
       </c>
       <c r="K25">
-        <v>3.169669176685261</v>
+        <v>1.09928955296806</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.733371406517136</v>
+        <v>3.282141937389525</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1032961280896671</v>
+        <v>0.3004202040378345</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1973786334130665</v>
+        <v>0.2096843396562917</v>
       </c>
       <c r="E2">
-        <v>0.1686580250957377</v>
+        <v>0.173417341767852</v>
       </c>
       <c r="F2">
-        <v>1.38539536047562</v>
+        <v>0.7706493742967453</v>
       </c>
       <c r="G2">
-        <v>0.002456613967747282</v>
+        <v>0.000801807119114505</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4947891773267941</v>
+        <v>0.2242944207213649</v>
       </c>
       <c r="J2">
-        <v>0.186744779948846</v>
+        <v>0.1875742276989882</v>
       </c>
       <c r="K2">
-        <v>0.9426148357079001</v>
+        <v>2.660588235704495</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.30716897825846</v>
+        <v>1.649816244121155</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09077806294087054</v>
+        <v>0.2618169483207851</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1913542004115669</v>
+        <v>0.1854625864137915</v>
       </c>
       <c r="E3">
-        <v>0.1644126951552778</v>
+        <v>0.1542585454253498</v>
       </c>
       <c r="F3">
-        <v>1.388371444129064</v>
+        <v>0.7327165572633803</v>
       </c>
       <c r="G3">
-        <v>0.002459499932330808</v>
+        <v>0.0008061969482716344</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5033369029767574</v>
+        <v>0.2413160271533625</v>
       </c>
       <c r="J3">
-        <v>0.1827546154448214</v>
+        <v>0.1675969381562012</v>
       </c>
       <c r="K3">
-        <v>0.8361995459853517</v>
+        <v>2.316472248337618</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.328628647878759</v>
+        <v>1.603337919409711</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08307687039801692</v>
+        <v>0.2381052283744651</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1877237933466631</v>
+        <v>0.1707123370575943</v>
       </c>
       <c r="E4">
-        <v>0.1618874637718051</v>
+        <v>0.1426643838487607</v>
       </c>
       <c r="F4">
-        <v>1.391069844476128</v>
+        <v>0.7111730453189793</v>
       </c>
       <c r="G4">
-        <v>0.002461366423824715</v>
+        <v>0.0008089787967401507</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5088964811680303</v>
+        <v>0.252399062067699</v>
       </c>
       <c r="J4">
-        <v>0.1804138514620774</v>
+        <v>0.1555819054805312</v>
       </c>
       <c r="K4">
-        <v>0.7707506856914961</v>
+        <v>2.105393969081291</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.344019255003417</v>
+        <v>1.579364069511115</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07993502248385198</v>
+        <v>0.2284378304242836</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1862617322926781</v>
+        <v>0.1647291237016191</v>
       </c>
       <c r="E5">
-        <v>0.1608789242480633</v>
+        <v>0.1379786076268559</v>
       </c>
       <c r="F5">
-        <v>1.392388369240187</v>
+        <v>0.7028086182575137</v>
       </c>
       <c r="G5">
-        <v>0.002462150868321077</v>
+        <v>0.0008101346164966655</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5112403007616479</v>
+        <v>0.2570699116347326</v>
       </c>
       <c r="J5">
-        <v>0.1794874291619308</v>
+        <v>0.1507436494300904</v>
       </c>
       <c r="K5">
-        <v>0.744053757952031</v>
+        <v>2.019400374725961</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.350847233796259</v>
+        <v>1.570680551623212</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07941311360033865</v>
+        <v>0.2268322174256667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1860200097129194</v>
+        <v>0.1637371989148591</v>
       </c>
       <c r="E6">
-        <v>0.1607126971189921</v>
+        <v>0.1372027866276504</v>
       </c>
       <c r="F6">
-        <v>1.392620526686933</v>
+        <v>0.7014440635938257</v>
       </c>
       <c r="G6">
-        <v>0.002462282566307344</v>
+        <v>0.0008103278927453114</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5116342156060005</v>
+        <v>0.2578547038188344</v>
       </c>
       <c r="J6">
-        <v>0.1793352557213339</v>
+        <v>0.1499436158961984</v>
       </c>
       <c r="K6">
-        <v>0.7396192293490174</v>
+        <v>2.005121715058863</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.352014588387888</v>
+        <v>1.569302512368722</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08303451239703463</v>
+        <v>0.2379748724344779</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1877040050533338</v>
+        <v>0.1706315373644856</v>
       </c>
       <c r="E7">
-        <v>0.1618737791467275</v>
+        <v>0.1426010368641251</v>
       </c>
       <c r="F7">
-        <v>1.391086740405214</v>
+        <v>0.7110585921576273</v>
       </c>
       <c r="G7">
-        <v>0.002461376906675278</v>
+        <v>0.0008089942941697767</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5089277739450209</v>
+        <v>0.2524614352238306</v>
       </c>
       <c r="J7">
-        <v>0.18040124623586</v>
+        <v>0.1555164269921434</v>
       </c>
       <c r="K7">
-        <v>0.7703907447619542</v>
+        <v>2.104234176890543</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.344109088383902</v>
+        <v>1.579242642384315</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09898315953327597</v>
+        <v>0.2871102126753158</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1952872273609074</v>
+        <v>0.2013054619616099</v>
       </c>
       <c r="E8">
-        <v>0.1671773588787815</v>
+        <v>0.166773952859181</v>
       </c>
       <c r="F8">
-        <v>1.386240639117979</v>
+        <v>0.7571921989662087</v>
       </c>
       <c r="G8">
-        <v>0.002457589478532831</v>
+        <v>0.0008033030616032211</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4976718254593342</v>
+        <v>0.2300296405092066</v>
       </c>
       <c r="J8">
-        <v>0.1853462995587023</v>
+        <v>0.1806307316292006</v>
       </c>
       <c r="K8">
-        <v>0.9059464436386975</v>
+        <v>2.541874373577684</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.314108322015414</v>
+        <v>1.632805109562156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1301302143922101</v>
+        <v>0.3835116592798897</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2106986858254345</v>
+        <v>0.2625742663703221</v>
       </c>
       <c r="E9">
-        <v>0.1782226722325291</v>
+        <v>0.2156991717255465</v>
       </c>
       <c r="F9">
-        <v>1.383656723864902</v>
+        <v>0.8627103297003913</v>
       </c>
       <c r="G9">
-        <v>0.002450908866523327</v>
+        <v>0.0007928071595907619</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4780690141069659</v>
+        <v>0.1912613460634223</v>
       </c>
       <c r="J9">
-        <v>0.1959110609754191</v>
+        <v>0.2321228030729543</v>
       </c>
       <c r="K9">
-        <v>1.170848122081964</v>
+        <v>3.403270535693252</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.272876426614346</v>
+        <v>1.777011707499554</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1529262789605923</v>
+        <v>0.454552395534904</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2223475566284208</v>
+        <v>0.3084956174598403</v>
       </c>
       <c r="E10">
-        <v>0.1867305963239119</v>
+        <v>0.2528400776152608</v>
       </c>
       <c r="F10">
-        <v>1.385989575911665</v>
+        <v>0.9511751061962883</v>
       </c>
       <c r="G10">
-        <v>0.00244645112793237</v>
+        <v>0.0007854689385475136</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4651729792018022</v>
+        <v>0.1662639105591595</v>
       </c>
       <c r="J10">
-        <v>0.2042043063437404</v>
+        <v>0.2716972587438562</v>
       </c>
       <c r="K10">
-        <v>1.364855375813136</v>
+        <v>4.040414906496267</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.253357573427166</v>
+        <v>1.911237558401325</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1632759009097953</v>
+        <v>0.4869623577557149</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2277170569792872</v>
+        <v>0.3296379396437175</v>
       </c>
       <c r="E11">
-        <v>0.1906864024394537</v>
+        <v>0.2700605557586826</v>
       </c>
       <c r="F11">
-        <v>1.387972608482031</v>
+        <v>0.9942204249073825</v>
       </c>
       <c r="G11">
-        <v>0.002444520032711406</v>
+        <v>0.0007822039990720281</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4596333582241741</v>
+        <v>0.155720434905863</v>
       </c>
       <c r="J11">
-        <v>0.2080930827519722</v>
+        <v>0.2901699416621426</v>
       </c>
       <c r="K11">
-        <v>1.452970513048911</v>
+        <v>4.331767990026776</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.246827415689864</v>
+        <v>1.979498904408729</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1671918931639027</v>
+        <v>0.4992524866657391</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2297603805913866</v>
+        <v>0.3376851333174073</v>
       </c>
       <c r="E12">
-        <v>0.1921966365587053</v>
+        <v>0.2766339994226072</v>
       </c>
       <c r="F12">
-        <v>1.38885628577151</v>
+        <v>1.010961920412981</v>
       </c>
       <c r="G12">
-        <v>0.002443802616344461</v>
+        <v>0.0007809775127785079</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4575826713856017</v>
+        <v>0.15185342566914</v>
       </c>
       <c r="J12">
-        <v>0.2095823861085364</v>
+        <v>0.2972408285678796</v>
       </c>
       <c r="K12">
-        <v>1.486316069248517</v>
+        <v>4.442364207276967</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.244693171502888</v>
+        <v>2.006479183408146</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1663486597531119</v>
+        <v>0.4966047600582186</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.229319870808169</v>
+        <v>0.3359501205389108</v>
       </c>
       <c r="E13">
-        <v>0.1918708361562551</v>
+        <v>0.2752158634843127</v>
       </c>
       <c r="F13">
-        <v>1.388660063104339</v>
+        <v>1.007336077616245</v>
       </c>
       <c r="G13">
-        <v>0.002443956509798312</v>
+        <v>0.0007812412303569323</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4580222302896679</v>
+        <v>0.1526805618519864</v>
       </c>
       <c r="J13">
-        <v>0.2092608947634602</v>
+        <v>0.2957144846684372</v>
       </c>
       <c r="K13">
-        <v>1.47913549971031</v>
+        <v>4.418532616686036</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.245137747917454</v>
+        <v>2.000616582217418</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1635981371963027</v>
+        <v>0.4879731070401334</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2278849624426016</v>
+        <v>0.3302991357462304</v>
       </c>
       <c r="E14">
-        <v>0.1908104049050721</v>
+        <v>0.2706002720014666</v>
       </c>
       <c r="F14">
-        <v>1.388042647624857</v>
+        <v>0.9955886864293859</v>
       </c>
       <c r="G14">
-        <v>0.002444460733346012</v>
+        <v>0.0007821029013842248</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4594637038132907</v>
+        <v>0.1553997381247836</v>
       </c>
       <c r="J14">
-        <v>0.2082152737358882</v>
+        <v>0.2907501023049548</v>
       </c>
       <c r="K14">
-        <v>1.455714316961576</v>
+        <v>4.340861154363722</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.246645039858038</v>
+        <v>1.981695342247889</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1619129405952151</v>
+        <v>0.4826883248839664</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.227007340057142</v>
+        <v>0.3268432384004285</v>
       </c>
       <c r="E15">
-        <v>0.1901624550805749</v>
+        <v>0.2677800929426937</v>
       </c>
       <c r="F15">
-        <v>1.387681755920212</v>
+        <v>0.9884517090727485</v>
       </c>
       <c r="G15">
-        <v>0.002444771386225601</v>
+        <v>0.0007826319654530127</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4603527763292528</v>
+        <v>0.1570818666039404</v>
       </c>
       <c r="J15">
-        <v>0.2075769767837272</v>
+        <v>0.2877193821762205</v>
       </c>
       <c r="K15">
-        <v>1.441365287369933</v>
+        <v>4.293321473794833</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.247612416926302</v>
+        <v>1.970255820002507</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.152249474617534</v>
+        <v>0.4524365197668203</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2219980538773001</v>
+        <v>0.3071193949056266</v>
       </c>
       <c r="E16">
-        <v>0.1864737923376012</v>
+        <v>0.2517216938028142</v>
       </c>
       <c r="F16">
-        <v>1.385878545527433</v>
+        <v>0.9484215796100699</v>
       </c>
       <c r="G16">
-        <v>0.002446579270944786</v>
+        <v>0.0007856837288637383</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4655415874991347</v>
+        <v>0.1669701595706643</v>
       </c>
       <c r="J16">
-        <v>0.2039525033025456</v>
+        <v>0.2705001609915172</v>
       </c>
       <c r="K16">
-        <v>1.359093892072792</v>
+        <v>4.021408881586694</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.253831671523415</v>
+        <v>1.906929432428939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1463158434384155</v>
+        <v>0.4339044803366789</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2189429650980657</v>
+        <v>0.295087382931726</v>
       </c>
       <c r="E17">
-        <v>0.1842327896908529</v>
+        <v>0.2419575162348053</v>
       </c>
       <c r="F17">
-        <v>1.385008567286448</v>
+        <v>0.9246083651658381</v>
       </c>
       <c r="G17">
-        <v>0.002447713083485722</v>
+        <v>0.0007875741953869607</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4688085022507522</v>
+        <v>0.1732528729131557</v>
       </c>
       <c r="J17">
-        <v>0.2017587573167248</v>
+        <v>0.2600626738053222</v>
       </c>
       <c r="K17">
-        <v>1.308586095676617</v>
+        <v>3.855020748766776</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.25824919871016</v>
+        <v>1.869990880304783</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1429010682242478</v>
+        <v>0.4232538679719937</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2171923889371214</v>
+        <v>0.2881903456260062</v>
       </c>
       <c r="E18">
-        <v>0.182951875113325</v>
+        <v>0.2363716327657528</v>
       </c>
       <c r="F18">
-        <v>1.384594932178473</v>
+        <v>0.9111729358458405</v>
       </c>
       <c r="G18">
-        <v>0.002448374333138651</v>
+        <v>0.0007886684788781137</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4707183070325334</v>
+        <v>0.1769440424283246</v>
       </c>
       <c r="J18">
-        <v>0.2005079036056543</v>
+        <v>0.2541030305310841</v>
       </c>
       <c r="K18">
-        <v>1.279522291826368</v>
+        <v>3.759457884231779</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.261011101425169</v>
+        <v>1.849416467912903</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1417445639894765</v>
+        <v>0.4196491076045703</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2166008159754824</v>
+        <v>0.2858590174752891</v>
       </c>
       <c r="E19">
-        <v>0.1825195634064372</v>
+        <v>0.2344853712766195</v>
       </c>
       <c r="F19">
-        <v>1.384469776584695</v>
+        <v>0.9066676934747022</v>
       </c>
       <c r="G19">
-        <v>0.002448599787606254</v>
+        <v>0.0007890401952389686</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.471370216077232</v>
+        <v>0.1782069314862085</v>
       </c>
       <c r="J19">
-        <v>0.2000862631977611</v>
+        <v>0.2520924712873125</v>
       </c>
       <c r="K19">
-        <v>1.269679595135528</v>
+        <v>3.727124404569793</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.261984177014028</v>
+        <v>1.842562892333262</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1469476878291402</v>
+        <v>0.4358763386437801</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2192674991135988</v>
+        <v>0.2963657501337025</v>
       </c>
       <c r="E20">
-        <v>0.1844705153026922</v>
+        <v>0.2429937627775232</v>
       </c>
       <c r="F20">
-        <v>1.38509219791834</v>
+        <v>0.9271160115369383</v>
       </c>
       <c r="G20">
-        <v>0.00244759144459892</v>
+        <v>0.0007873722386279313</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4684575495283729</v>
+        <v>0.1725759986283686</v>
       </c>
       <c r="J20">
-        <v>0.2019911539535286</v>
+        <v>0.2611691804176388</v>
       </c>
       <c r="K20">
-        <v>1.313964099912027</v>
+        <v>3.872718298517213</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.257756060987447</v>
+        <v>1.873852868577586</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1644061207548759</v>
+        <v>0.490507934910994</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2283061589992457</v>
+        <v>0.3319578129986951</v>
       </c>
       <c r="E21">
-        <v>0.1911215469565875</v>
+        <v>0.2719545126452303</v>
       </c>
       <c r="F21">
-        <v>1.388220393309354</v>
+        <v>0.9990268871465418</v>
       </c>
       <c r="G21">
-        <v>0.002444312255229928</v>
+        <v>0.000781849545157816</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.459039030868249</v>
+        <v>0.1545975879517973</v>
       </c>
       <c r="J21">
-        <v>0.2085219444631008</v>
+        <v>0.2922061399920608</v>
       </c>
       <c r="K21">
-        <v>1.462594288940579</v>
+        <v>4.363667479267463</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.246193116273531</v>
+        <v>1.98722146849471</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.175797537487739</v>
+        <v>0.5263149476506612</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2342717435303285</v>
+        <v>0.355461066837421</v>
       </c>
       <c r="E22">
-        <v>0.1955398006483691</v>
+        <v>0.2911905787819933</v>
       </c>
       <c r="F22">
-        <v>1.391038683034935</v>
+        <v>1.048616245510686</v>
       </c>
       <c r="G22">
-        <v>0.002442249798705157</v>
+        <v>0.0007782973658762249</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4531577349354485</v>
+        <v>0.1435829559612234</v>
       </c>
       <c r="J22">
-        <v>0.2128875848769241</v>
+        <v>0.3129359648403636</v>
       </c>
       <c r="K22">
-        <v>1.559605274294199</v>
+        <v>4.686114361732507</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.240609962136062</v>
+        <v>2.067957889697396</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1697195146651325</v>
+        <v>0.5071934008850576</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2310825004140469</v>
+        <v>0.3428931448237336</v>
       </c>
       <c r="E23">
-        <v>0.1931751737218121</v>
+        <v>0.2808936904786634</v>
       </c>
       <c r="F23">
-        <v>1.389463639868069</v>
+        <v>1.021898918803743</v>
       </c>
       <c r="G23">
-        <v>0.002443343209789006</v>
+        <v>0.0007801882256009805</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4562715836798175</v>
+        <v>0.1493921241973597</v>
       </c>
       <c r="J23">
-        <v>0.210548646590027</v>
+        <v>0.3018284672156994</v>
       </c>
       <c r="K23">
-        <v>1.507840885025644</v>
+        <v>4.513856000572957</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.243408923190657</v>
+        <v>2.024225817906625</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1466620417126876</v>
+        <v>0.4349848502484122</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2191207591027933</v>
+        <v>0.2957877373632982</v>
       </c>
       <c r="E24">
-        <v>0.1843630162906109</v>
+        <v>0.2425251899481822</v>
       </c>
       <c r="F24">
-        <v>1.38505411899466</v>
+        <v>0.9259815128701376</v>
       </c>
       <c r="G24">
-        <v>0.002447646408243709</v>
+        <v>0.0007874635201214381</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4686161167884908</v>
+        <v>0.1728817674331777</v>
       </c>
       <c r="J24">
-        <v>0.2018860551655166</v>
+        <v>0.2606688016535799</v>
       </c>
       <c r="K24">
-        <v>1.311532785681777</v>
+        <v>3.864716941295626</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.257978316436407</v>
+        <v>1.872104808671253</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1217188263515112</v>
+        <v>0.3574091030989734</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2064719574093061</v>
+        <v>0.2458574492213472</v>
       </c>
       <c r="E25">
-        <v>0.1751655991268208</v>
+        <v>0.2022741681008355</v>
       </c>
       <c r="F25">
-        <v>1.383613633125336</v>
+        <v>0.8323789139691087</v>
       </c>
       <c r="G25">
-        <v>0.00245263670537474</v>
+        <v>0.000795578617922404</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4831076251381168</v>
+        <v>0.20116014269614</v>
       </c>
       <c r="J25">
-        <v>0.1929598852404979</v>
+        <v>0.217915543080494</v>
       </c>
       <c r="K25">
-        <v>1.09928955296806</v>
+        <v>3.169669176685375</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.282141937389525</v>
+        <v>1.733371406517193</v>
       </c>
     </row>
   </sheetData>
